--- a/Front Panel/BOM-FP-Rev2b.xlsx
+++ b/Front Panel/BOM-FP-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\FrontPanel\Rev2\Project Outputs for FrontPanelRev2b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1548DC81-6ECD-4E7F-957F-9EFD63CFD83A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8762D3-9FCB-4B1B-BB97-9614714F64DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="9750" xr2:uid="{045EFDA7-D80F-406D-8318-0D6024B6C034}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t>2019-RK73H2ATTD2001FCT-ND</t>
   </si>
   <si>
-    <t>SMC</t>
-  </si>
-  <si>
     <t>Cap</t>
   </si>
   <si>
@@ -382,6 +376,12 @@
   </si>
   <si>
     <t>Front Panel Rev 2b</t>
+  </si>
+  <si>
+    <t>Surface Mount</t>
+  </si>
+  <si>
+    <t>Manufacturer Part #</t>
   </si>
 </sst>
 </file>
@@ -766,33 +766,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE43F4E9-E425-4156-904B-975EBF3C22ED}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.89453125" customWidth="1"/>
-    <col min="2" max="2" width="22.578125" customWidth="1"/>
+    <col min="2" max="2" width="12.26171875" customWidth="1"/>
     <col min="3" max="3" width="31.26171875" customWidth="1"/>
     <col min="4" max="4" width="21.3671875" customWidth="1"/>
     <col min="5" max="5" width="6.83984375" customWidth="1"/>
     <col min="6" max="6" width="11.9453125" customWidth="1"/>
     <col min="7" max="7" width="9.578125" customWidth="1"/>
     <col min="8" max="8" width="21.3671875" customWidth="1"/>
-    <col min="9" max="9" width="25.15625" customWidth="1"/>
+    <col min="9" max="9" width="19.578125" customWidth="1"/>
     <col min="10" max="10" width="9.26171875" customWidth="1"/>
     <col min="11" max="11" width="28.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -809,25 +809,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -835,32 +835,32 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -868,32 +868,32 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -901,30 +901,30 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -932,30 +932,30 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -963,30 +963,30 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -994,30 +994,30 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1025,30 +1025,30 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1056,30 +1056,30 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1087,30 +1087,30 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1118,30 +1118,30 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1149,32 +1149,32 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1182,32 +1182,32 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1215,32 +1215,32 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1248,32 +1248,32 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1281,32 +1281,32 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1314,32 +1314,32 @@
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1347,32 +1347,32 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
